--- a/framework-types/testcases.xlsx
+++ b/framework-types/testcases.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Petko\Desktop\Projects\TA-Introduction\framework-types\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="120" windowWidth="22995" windowHeight="10035"/>
   </bookViews>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="26">
   <si>
     <t>Step</t>
   </si>
@@ -27,38 +32,80 @@
     <t>Maximize browser window</t>
   </si>
   <si>
-    <t>Open "Chrome" browser  with url "https://google.cz"</t>
-  </si>
-  <si>
-    <t>Validation</t>
-  </si>
-  <si>
-    <t>Validate that the title of the page is "Robot Framework"</t>
-  </si>
-  <si>
-    <t>Close the "Chrome" browser</t>
-  </si>
-  <si>
-    <t>Use google for searching for the string "Robot Framework"</t>
-  </si>
-  <si>
-    <t>Click on the link from the search result "Robot Framework" (http://robotframework.org/)</t>
-  </si>
-  <si>
-    <t>Use google for searching for the string "Selenium WebDriver"</t>
-  </si>
-  <si>
-    <t>Validate that the title of the page is "Selenium WebDriver"</t>
-  </si>
-  <si>
-    <t>Click on the link from the search result "Selenium WebDriver" (http://www.seleniumhq.org/projects/webdriver/)</t>
+    <t>Parameters</t>
+  </si>
+  <si>
+    <t>Write string &lt;search_input&gt; to the google search input</t>
+  </si>
+  <si>
+    <t>[search_input: "Robot Framework"]</t>
+  </si>
+  <si>
+    <t>[link_name: "Robot Framework"], [link_url: "http://robotframework.org/"]</t>
+  </si>
+  <si>
+    <t>Expected result</t>
+  </si>
+  <si>
+    <t>[page_title: "Robot Framework"]</t>
+  </si>
+  <si>
+    <t>Click on the link from the search result represented by &lt;link_name&gt;, &lt;link_url&gt;</t>
+  </si>
+  <si>
+    <t>Validate the title of the opened page</t>
+  </si>
+  <si>
+    <t>Close the browser</t>
+  </si>
+  <si>
+    <t>[browser_type: "chrome"]</t>
+  </si>
+  <si>
+    <t>[page_url: "https://google.cz"]</t>
+  </si>
+  <si>
+    <t>Open new &lt;browser_type&gt; browser window</t>
+  </si>
+  <si>
+    <t>Navigate to &lt;page_url&gt;</t>
+  </si>
+  <si>
+    <t>[search_input: "Selenium WebDriver"]</t>
+  </si>
+  <si>
+    <t>[page_title: "Selenium WebDriver"]</t>
+  </si>
+  <si>
+    <t>[link_name: "Selenium WebDriver"], [link_url: "http://www.seleniumhq.org/projects/webdriver/"]</t>
+  </si>
+  <si>
+    <t>Title of the page is exact match to &lt;page_title&gt;</t>
+  </si>
+  <si>
+    <t>Test case name:</t>
+  </si>
+  <si>
+    <t>Title test for page Selenium WebDriver</t>
+  </si>
+  <si>
+    <t>Title test for page: Robot Framework</t>
+  </si>
+  <si>
+    <t>Submit the search by pressing the Enter key</t>
+  </si>
+  <si>
+    <t>Behavior tests:</t>
+  </si>
+  <si>
+    <t>Regular tests:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -76,6 +123,22 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -91,7 +154,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -121,9 +184,168 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -163,92 +385,83 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -258,6 +471,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -306,7 +522,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -341,7 +557,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -550,135 +766,474 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:D14"/>
+  <dimension ref="B1:E48"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="104.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="54.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="91.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="54.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B2" s="7" t="s">
+    <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B2" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="23"/>
+    </row>
+    <row r="3" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="24"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="26"/>
+    </row>
+    <row r="4" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="12"/>
+      <c r="E4" s="13"/>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B5" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C5" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D5" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B6" s="2">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B7" s="2">
+        <v>2</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B8" s="2">
+        <v>3</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B9" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="2">
+      <c r="C9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B10" s="2">
+        <v>5</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B11" s="2">
+        <v>6</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B12" s="2">
+        <v>7</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="4">
+        <v>8</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="5"/>
+      <c r="E13" s="6"/>
+    </row>
+    <row r="14" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="19"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="20"/>
+    </row>
+    <row r="15" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="11"/>
+      <c r="E15" s="14"/>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B16" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D16" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="3"/>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="2">
+      <c r="E16" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" s="2">
+        <v>1</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="3"/>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18" s="2">
         <v>2</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="3"/>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="2">
+      <c r="D18" s="1"/>
+      <c r="E18" s="3"/>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19" s="2">
         <v>3</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="3"/>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B20" s="2">
+        <v>4</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" s="3"/>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B21" s="2">
+        <v>5</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" s="1"/>
+      <c r="E21" s="3"/>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B22" s="2">
+        <v>6</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22" s="3"/>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B23" s="2">
         <v>7</v>
       </c>
-      <c r="D5" s="3"/>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="2">
+      <c r="C23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="4">
+        <v>8</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" s="5"/>
+      <c r="E24" s="6"/>
+    </row>
+    <row r="25" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="18"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+    </row>
+    <row r="26" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B26" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="23"/>
+    </row>
+    <row r="27" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="24"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="26"/>
+    </row>
+    <row r="28" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D28" s="12"/>
+      <c r="E28" s="13"/>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B29" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="D29" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E29" s="17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B30" s="2">
+        <v>1</v>
+      </c>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="3"/>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B31" s="2">
+        <v>2</v>
+      </c>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="3"/>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B32" s="2">
+        <v>3</v>
+      </c>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="3"/>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B33" s="2">
         <v>4</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="3"/>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B34" s="2">
+        <v>5</v>
+      </c>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="3"/>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B35" s="2">
+        <v>6</v>
+      </c>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="3"/>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B36" s="2">
+        <v>7</v>
+      </c>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="3"/>
+    </row>
+    <row r="37" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="4">
         <v>8</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="6"/>
+    </row>
+    <row r="38" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="19"/>
+      <c r="C38" s="18"/>
+      <c r="D38" s="18"/>
+      <c r="E38" s="20"/>
+    </row>
+    <row r="39" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D39" s="11"/>
+      <c r="E39" s="14"/>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B40" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B41" s="2">
+        <v>1</v>
+      </c>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="3"/>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B42" s="2">
+        <v>2</v>
+      </c>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="3"/>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B43" s="2">
+        <v>3</v>
+      </c>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="3"/>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B44" s="2">
+        <v>4</v>
+      </c>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="3"/>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B45" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="4">
-        <v>5</v>
-      </c>
-      <c r="C7" s="5" t="s">
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="3"/>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B46" s="2">
         <v>6</v>
       </c>
-      <c r="D7" s="6"/>
-    </row>
-    <row r="8" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B9" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B10" s="2">
-        <v>1</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D10" s="3"/>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B11" s="2">
-        <v>2</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D11" s="3"/>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B12" s="2">
-        <v>3</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="3"/>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B13" s="2">
-        <v>4</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="4">
-        <v>5</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" s="6"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="3"/>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B47" s="2">
+        <v>7</v>
+      </c>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="3"/>
+    </row>
+    <row r="48" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="4">
+        <v>8</v>
+      </c>
+      <c r="C48" s="5"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/framework-types/testcases.xlsx
+++ b/framework-types/testcases.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="23">
   <si>
     <t>Step</t>
   </si>
@@ -59,18 +59,6 @@
     <t>Close the browser</t>
   </si>
   <si>
-    <t>[browser_type: "chrome"]</t>
-  </si>
-  <si>
-    <t>[page_url: "https://google.cz"]</t>
-  </si>
-  <si>
-    <t>Open new &lt;browser_type&gt; browser window</t>
-  </si>
-  <si>
-    <t>Navigate to &lt;page_url&gt;</t>
-  </si>
-  <si>
     <t>[search_input: "Selenium WebDriver"]</t>
   </si>
   <si>
@@ -95,10 +83,13 @@
     <t>Submit the search by pressing the Enter key</t>
   </si>
   <si>
-    <t>Behavior tests:</t>
-  </si>
-  <si>
     <t>Regular tests:</t>
+  </si>
+  <si>
+    <t>Open new &lt;browser_type&gt; browser window with url &lt;page_url&gt;</t>
+  </si>
+  <si>
+    <t>[browser_type: "chrome"], [page_url: "https://google.cz"]</t>
   </si>
 </sst>
 </file>
@@ -154,7 +145,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -259,45 +250,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -434,7 +386,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -442,26 +394,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -766,10 +715,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:E48"/>
+  <dimension ref="B1:E23"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -782,40 +731,40 @@
   <sheetData>
     <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B2" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="23"/>
+      <c r="B2" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="20"/>
     </row>
     <row r="3" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="24"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="26"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="23"/>
     </row>
     <row r="4" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="13"/>
+      <c r="B4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="E4" s="10"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="E5" s="14" t="s">
         <v>7</v>
       </c>
     </row>
@@ -824,10 +773,10 @@
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="E6" s="3"/>
     </row>
@@ -846,10 +795,10 @@
         <v>3</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E8" s="3"/>
     </row>
@@ -858,11 +807,9 @@
         <v>4</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>5</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="D9" s="1"/>
       <c r="E9" s="3"/>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
@@ -870,9 +817,11 @@
         <v>5</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="E10" s="3"/>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
@@ -880,360 +829,140 @@
         <v>6</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11" s="3"/>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="2">
+        <v>8</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="4">
         <v>7</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>19</v>
-      </c>
+      <c r="C12" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="5"/>
+      <c r="E12" s="6"/>
     </row>
     <row r="13" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="4">
-        <v>8</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="6"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="17"/>
     </row>
     <row r="14" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="19"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="20"/>
-    </row>
-    <row r="15" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="11" t="s">
+      <c r="B14" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="8"/>
+      <c r="E14" s="11"/>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B15" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B16" s="2">
+        <v>1</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="11"/>
-      <c r="E15" s="14"/>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B16" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>7</v>
-      </c>
+      <c r="D16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" s="3"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>12</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D17" s="1"/>
       <c r="E17" s="3"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D18" s="1"/>
+        <v>4</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="E18" s="3"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>13</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="D19" s="1"/>
       <c r="E19" s="3"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E20" s="3"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D21" s="1"/>
-      <c r="E21" s="3"/>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B22" s="2">
-        <v>6</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E22" s="3"/>
+        <v>10</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="4">
+        <v>7</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="5"/>
+      <c r="E22" s="6"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B23" s="2">
-        <v>7</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="4">
-        <v>8</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D24" s="5"/>
-      <c r="E24" s="6"/>
-    </row>
-    <row r="25" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="18"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-    </row>
-    <row r="26" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B26" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="C26" s="22"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="23"/>
-    </row>
-    <row r="27" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="24"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="26"/>
-    </row>
-    <row r="28" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D28" s="12"/>
-      <c r="E28" s="13"/>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B29" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C29" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="D29" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="E29" s="17" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B30" s="2">
-        <v>1</v>
-      </c>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="3"/>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B31" s="2">
-        <v>2</v>
-      </c>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="3"/>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B32" s="2">
-        <v>3</v>
-      </c>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="3"/>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B33" s="2">
-        <v>4</v>
-      </c>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="3"/>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B34" s="2">
-        <v>5</v>
-      </c>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="3"/>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B35" s="2">
-        <v>6</v>
-      </c>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="3"/>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B36" s="2">
-        <v>7</v>
-      </c>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="3"/>
-    </row>
-    <row r="37" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="4">
-        <v>8</v>
-      </c>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="6"/>
-    </row>
-    <row r="38" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="19"/>
-      <c r="C38" s="18"/>
-      <c r="D38" s="18"/>
-      <c r="E38" s="20"/>
-    </row>
-    <row r="39" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C39" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D39" s="11"/>
-      <c r="E39" s="14"/>
-    </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B40" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C40" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="D40" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E40" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B41" s="2">
-        <v>1</v>
-      </c>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="3"/>
-    </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B42" s="2">
-        <v>2</v>
-      </c>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="3"/>
-    </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B43" s="2">
-        <v>3</v>
-      </c>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="3"/>
-    </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B44" s="2">
-        <v>4</v>
-      </c>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="3"/>
-    </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B45" s="2">
-        <v>5</v>
-      </c>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="3"/>
-    </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B46" s="2">
-        <v>6</v>
-      </c>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="3"/>
-    </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B47" s="2">
-        <v>7</v>
-      </c>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="3"/>
-    </row>
-    <row r="48" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="4">
-        <v>8</v>
-      </c>
-      <c r="C48" s="5"/>
-      <c r="D48" s="5"/>
-      <c r="E48" s="6"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
